--- a/dox/sim-gpad-btns.xlsx
+++ b/dox/sim-gpad-btns.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t xml:space="preserve">A Button        </t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">cross</t>
   </si>
   <si>
-    <t xml:space="preserve">cam down</t>
+    <t xml:space="preserve">cam pitch / down</t>
   </si>
   <si>
     <t xml:space="preserve">R. Stick In     </t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">circle</t>
   </si>
   <si>
-    <t xml:space="preserve">cam left</t>
+    <t xml:space="preserve">cam yaw / left</t>
   </si>
   <si>
     <t xml:space="preserve">Guide Button    </t>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">square</t>
   </si>
   <si>
-    <t xml:space="preserve">cam right</t>
+    <t xml:space="preserve">cam yaw / right</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -133,12 +133,15 @@
     <t xml:space="preserve">triangle</t>
   </si>
   <si>
-    <t xml:space="preserve">cam up</t>
+    <t xml:space="preserve">cam pitch / up</t>
   </si>
   <si>
     <t xml:space="preserve">left bumper</t>
   </si>
   <si>
+    <t xml:space="preserve">cam zoom +</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cross Button    </t>
   </si>
   <si>
@@ -148,6 +151,9 @@
     <t xml:space="preserve">right bumper</t>
   </si>
   <si>
+    <t xml:space="preserve">cam zoom -</t>
+  </si>
+  <si>
     <t xml:space="preserve">Circle Button   </t>
   </si>
   <si>
@@ -157,6 +163,9 @@
     <t xml:space="preserve">back btn</t>
   </si>
   <si>
+    <t xml:space="preserve">reset launch model</t>
+  </si>
+  <si>
     <t xml:space="preserve">Square Button   </t>
   </si>
   <si>
@@ -166,6 +175,9 @@
     <t xml:space="preserve">start btn</t>
   </si>
   <si>
+    <t xml:space="preserve">launch model</t>
+  </si>
+  <si>
     <t xml:space="preserve">Triangle Button </t>
   </si>
   <si>
@@ -173,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">L. stick IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothing</t>
   </si>
   <si>
     <t xml:space="preserve"> Button 4</t>
@@ -236,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -268,12 +283,25 @@
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF5B277D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF999999"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -332,7 +360,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,15 +377,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -419,14 +455,14 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF5B277D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -438,10 +474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -451,7 +487,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="50.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,6 +600,12 @@
       <c r="K11" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
@@ -573,18 +617,20 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
@@ -596,18 +642,20 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
@@ -619,116 +667,140 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="H17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="3"/>
+      <c r="J17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
@@ -736,16 +808,20 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="3"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
@@ -753,94 +829,100 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="3"/>
+      <c r="J23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
